--- a/04_Writing/02_Tables/tab_wilcoxon.xlsx
+++ b/04_Writing/02_Tables/tab_wilcoxon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Meine Bibliotheken\Research\01_Promotion\05_Ideas\09_Cleantech\cleantech\04_Writing\02_Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\Jobs\ZEW\Research\01_Promotion\05_Ideas\09_Cleantech\cleantech\04_Writing\02_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D5F1E7-4353-40D3-94FD-8907202A66F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>E-Efficiency</t>
   </si>
   <si>
-    <t>E-Mobility</t>
-  </si>
-  <si>
     <t>Generation</t>
   </si>
   <si>
@@ -81,12 +79,15 @@
   </si>
   <si>
     <t>\multicolumn{2}{c}{Confidence levels one-sided Wilcoxon signed rank test for pair-wise comparison of highest \textsc{TechProx} value with second highest \textsc{TechProx} values in}</t>
+  </si>
+  <si>
+    <t>Mobility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,8 +132,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,62 +410,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A3" sqref="A3:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -472,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.87</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -501,28 +502,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.98</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -530,28 +531,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.96</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -559,28 +560,28 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.98</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,25 +618,31 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.9</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -643,31 +650,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,95 +682,89 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.96</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.96</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.98</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J2:J12" r:id="rId2" display="\\"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J2:J12" r:id="rId2" display="\\" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
